--- a/Living Expense.xlsx
+++ b/Living Expense.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b10e4aa3140efcd7/Documents/livingexpense/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoya\OneDrive\Documents\livingexpense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6958AC-E33A-4FB3-8072-D3311064FB78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{EA6958AC-E33A-4FB3-8072-D3311064FB78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{869650E4-B204-4831-B985-6014F1048C45}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{27C785E5-C1FC-4547-993F-FD33DDF72B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Living Expense" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t>book dota</t>
+  </si>
+  <si>
+    <t>cinema-atm</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -125,16 +131,17 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="_([$SGD]\ * #,##0.00_);_([$SGD]\ * \(#,##0.00\);_([$SGD]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$SGD]\ * #,##0.00_);_([$SGD]\ * \(#,##0.00\);_([$SGD]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$SGD]\ * #,##0.00_);_([$SGD]\ * \(#,##0.00\);_([$SGD]\ * &quot;-&quot;??_);_(@_)"/>
@@ -164,17 +171,38 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Income"/>
+      <sheetName val="Sing Expense"/>
+      <sheetName val="Living Expense"/>
+      <sheetName val="Flight Expense"/>
+      <sheetName val="Holiday"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C821B16-0082-4005-986B-19C0DCA7E1E0}" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:F21" xr:uid="{D825A02C-ED34-4917-807B-A7C2801AC5E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C821B16-0082-4005-986B-19C0DCA7E1E0}" name="Table2" displayName="Table2" ref="A1:F22" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:F22" xr:uid="{D825A02C-ED34-4917-807B-A7C2801AC5E6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2EE9E13C-23BD-456A-B74A-6BED9593666F}" name="Date" dataDxfId="4" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{8F7E171B-3BAB-4F62-8F47-069D7D7D4958}" name="Item" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{BF2A10E8-55DF-4D8E-BCC4-A87D94D038E4}" name="Raw" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{1BE2B602-93AE-440E-9FF7-AC128ACFA70F}" name="Div" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{1E8F116E-0743-48B8-8676-6BCCDD2BDD16}" name="Payer" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{063010D4-1A55-4BD7-8ADB-C19CB3055E97}" name="SGD" dataDxfId="1" dataCellStyle="Normal">
-      <calculatedColumnFormula>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{063010D4-1A55-4BD7-8ADB-C19CB3055E97}" name="SGD" dataDxfId="0" dataCellStyle="Normal">
+      <calculatedColumnFormula>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -186,7 +214,7 @@
   <autoFilter ref="H1:I3" xr:uid="{91187505-A908-4B76-99E6-7768155B9541}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{903BACB1-82B9-41E0-BC21-C5206927D753}" name="Payer"/>
-    <tableColumn id="2" xr3:uid="{BDCDBCC5-93E3-4285-A96E-8B04E3FA416B}" name="SGD" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{BDCDBCC5-93E3-4285-A96E-8B04E3FA416B}" name="SGD" dataDxfId="1">
       <calculatedColumnFormula>SUMIF(Table2[Payer],Table3[[#This Row],[Payer]],Table2[SGD])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -506,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACF1B6B-7B12-415F-B435-657621026849}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>6.25</v>
       </c>
       <c r="H2" t="s">
@@ -572,7 +600,7 @@
       </c>
       <c r="I2">
         <f>SUMIF(Table2[Payer],Table3[[#This Row],[Payer]],Table2[SGD])</f>
-        <v>208.285</v>
+        <v>207.79167000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -592,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>4</v>
       </c>
       <c r="H3" t="s">
@@ -600,7 +628,7 @@
       </c>
       <c r="I3">
         <f>SUMIF(Table2[Payer],Table3[[#This Row],[Payer]],Table2[SGD])</f>
-        <v>180.79166666666669</v>
+        <v>190.79166666666669</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -621,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>69.699999999999989</v>
       </c>
     </row>
@@ -642,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>111</v>
       </c>
       <c r="H5" t="s">
@@ -669,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>7.5250000000000004</v>
       </c>
       <c r="H6" t="str">
@@ -678,7 +706,7 @@
       </c>
       <c r="I6">
         <f>ABS(I2-I3)</f>
-        <v>27.493333333333311</v>
+        <v>17.000003333333325</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>11.85</v>
       </c>
     </row>
@@ -719,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>0.9</v>
       </c>
     </row>
@@ -740,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>5.95</v>
       </c>
     </row>
@@ -761,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>15.966666666666701</v>
       </c>
     </row>
@@ -782,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>5</v>
       </c>
     </row>
@@ -803,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>6.95</v>
       </c>
     </row>
@@ -824,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>2.5249999999999999</v>
       </c>
     </row>
@@ -845,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>7</v>
       </c>
     </row>
@@ -866,7 +894,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>54.5</v>
       </c>
     </row>
@@ -887,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>2.875</v>
       </c>
     </row>
@@ -908,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>35.875</v>
       </c>
     </row>
@@ -920,17 +948,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="5">
-        <v>13.19</v>
-      </c>
-      <c r="D18" s="1">
+        <f>13.19-0.49333</f>
+        <v>12.696669999999999</v>
+      </c>
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
-        <v>13.19</v>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
+        <v>12.696669999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="5">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>2.3250000000000002</v>
       </c>
     </row>
@@ -971,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="5">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>5.5</v>
       </c>
     </row>
@@ -993,8 +1022,29 @@
         <v>7</v>
       </c>
       <c r="F21" s="5">
-        <f>Table2[[#This Row],[Raw]]/Table2[[#This Row],[Div]]</f>
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>20.195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43236</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Living Expense.xlsx
+++ b/Living Expense.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoya\OneDrive\Documents\livingexpense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b10e4aa3140efcd7/Documents/livingexpense/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{EA6958AC-E33A-4FB3-8072-D3311064FB78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{869650E4-B204-4831-B985-6014F1048C45}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{EA6958AC-E33A-4FB3-8072-D3311064FB78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{AC26163C-1B66-489F-A093-125CEB41950C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{27C785E5-C1FC-4547-993F-FD33DDF72B52}"/>
   </bookViews>
@@ -123,15 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,9 +137,12 @@
   <dxfs count="5">
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$SGD]\ * #,##0.00_);_([$SGD]\ * \(#,##0.00\);_([$SGD]\ * &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$SGD]\ * #,##0.00_);_([$SGD]\ * \(#,##0.00\);_([$SGD]\ * &quot;-&quot;??_);_(@_)"/>
@@ -157,6 +158,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -182,26 +186,26 @@
       <sheetName val="Holiday"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C821B16-0082-4005-986B-19C0DCA7E1E0}" name="Table2" displayName="Table2" ref="A1:F22" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:F22" xr:uid="{D825A02C-ED34-4917-807B-A7C2801AC5E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C821B16-0082-4005-986B-19C0DCA7E1E0}" name="Table2" displayName="Table2" ref="A1:F23" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:F23" xr:uid="{D825A02C-ED34-4917-807B-A7C2801AC5E6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2EE9E13C-23BD-456A-B74A-6BED9593666F}" name="Date" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{2EE9E13C-23BD-456A-B74A-6BED9593666F}" name="Date" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{8F7E171B-3BAB-4F62-8F47-069D7D7D4958}" name="Item" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{BF2A10E8-55DF-4D8E-BCC4-A87D94D038E4}" name="Raw" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{1BE2B602-93AE-440E-9FF7-AC128ACFA70F}" name="Div" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{BF2A10E8-55DF-4D8E-BCC4-A87D94D038E4}" name="Raw" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{1BE2B602-93AE-440E-9FF7-AC128ACFA70F}" name="Div" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{1E8F116E-0743-48B8-8676-6BCCDD2BDD16}" name="Payer" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{063010D4-1A55-4BD7-8ADB-C19CB3055E97}" name="SGD" dataDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{063010D4-1A55-4BD7-8ADB-C19CB3055E97}" name="SGD" dataDxfId="2" dataCellStyle="Normal">
       <calculatedColumnFormula>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -214,7 +218,7 @@
   <autoFilter ref="H1:I3" xr:uid="{91187505-A908-4B76-99E6-7768155B9541}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{903BACB1-82B9-41E0-BC21-C5206927D753}" name="Payer"/>
-    <tableColumn id="2" xr3:uid="{BDCDBCC5-93E3-4285-A96E-8B04E3FA416B}" name="SGD" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{BDCDBCC5-93E3-4285-A96E-8B04E3FA416B}" name="SGD" dataDxfId="4">
       <calculatedColumnFormula>SUMIF(Table2[Payer],Table3[[#This Row],[Payer]],Table2[SGD])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -534,18 +538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACF1B6B-7B12-415F-B435-657621026849}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,7 +560,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -582,7 +586,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>12.5</v>
       </c>
       <c r="D2" s="1">
@@ -600,7 +604,7 @@
       </c>
       <c r="I2">
         <f>SUMIF(Table2[Payer],Table3[[#This Row],[Payer]],Table2[SGD])</f>
-        <v>207.79167000000001</v>
+        <v>216.04167000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -610,7 +614,7 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>8</v>
       </c>
       <c r="D3" s="1">
@@ -638,7 +642,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <f>19.9*2+29.9</f>
         <v>69.699999999999989</v>
       </c>
@@ -687,7 +691,7 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>15.05</v>
       </c>
       <c r="D6" s="1">
@@ -706,7 +710,7 @@
       </c>
       <c r="I6">
         <f>ABS(I2-I3)</f>
-        <v>17.000003333333325</v>
+        <v>25.250003333333325</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -716,7 +720,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>23.7</v>
       </c>
       <c r="D7" s="1">
@@ -951,7 +955,7 @@
         <f>13.19-0.49333</f>
         <v>12.696669999999999</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1036,7 +1040,7 @@
       <c r="C22" s="5">
         <v>10</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1045,6 +1049,32 @@
       <c r="F22" s="5">
         <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f>[1]!Table2[[#This Row],[Date]]</f>
+        <v>43238</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Item]]</f>
+        <v>pizza-atm</v>
+      </c>
+      <c r="C23" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]</f>
+        <v>16.5</v>
+      </c>
+      <c r="D23" s="1">
+        <f>[1]!Table2[[#This Row],[Div]]</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Payer]]</f>
+        <v>Hoang</v>
+      </c>
+      <c r="F23" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
+        <v>8.25</v>
       </c>
     </row>
   </sheetData>

--- a/Living Expense.xlsx
+++ b/Living Expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b10e4aa3140efcd7/Documents/livingexpense/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{EA6958AC-E33A-4FB3-8072-D3311064FB78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{AC26163C-1B66-489F-A093-125CEB41950C}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{EA6958AC-E33A-4FB3-8072-D3311064FB78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{7C9CBA1C-2B10-4B7D-853E-D7F3DCBB29F4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{27C785E5-C1FC-4547-993F-FD33DDF72B52}"/>
   </bookViews>
@@ -136,6 +136,12 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$SGD]\ * #,##0.00_);_([$SGD]\ * \(#,##0.00\);_([$SGD]\ * &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_([$SGD]\ * #,##0.00_);_([$SGD]\ * \(#,##0.00\);_([$SGD]\ * &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
@@ -154,13 +160,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$SGD]\ * #,##0.00_);_([$SGD]\ * \(#,##0.00\);_([$SGD]\ * &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,15 +197,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C821B16-0082-4005-986B-19C0DCA7E1E0}" name="Table2" displayName="Table2" ref="A1:F23" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:F23" xr:uid="{D825A02C-ED34-4917-807B-A7C2801AC5E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C821B16-0082-4005-986B-19C0DCA7E1E0}" name="Table2" displayName="Table2" ref="A1:F29" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:F29" xr:uid="{D825A02C-ED34-4917-807B-A7C2801AC5E6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2EE9E13C-23BD-456A-B74A-6BED9593666F}" name="Date" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{2EE9E13C-23BD-456A-B74A-6BED9593666F}" name="Date" dataDxfId="4" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{8F7E171B-3BAB-4F62-8F47-069D7D7D4958}" name="Item" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{BF2A10E8-55DF-4D8E-BCC4-A87D94D038E4}" name="Raw" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{1BE2B602-93AE-440E-9FF7-AC128ACFA70F}" name="Div" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{BF2A10E8-55DF-4D8E-BCC4-A87D94D038E4}" name="Raw" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{1BE2B602-93AE-440E-9FF7-AC128ACFA70F}" name="Div" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{1E8F116E-0743-48B8-8676-6BCCDD2BDD16}" name="Payer" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{063010D4-1A55-4BD7-8ADB-C19CB3055E97}" name="SGD" dataDxfId="2" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{063010D4-1A55-4BD7-8ADB-C19CB3055E97}" name="SGD" dataDxfId="1" dataCellStyle="Normal">
       <calculatedColumnFormula>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -218,7 +218,7 @@
   <autoFilter ref="H1:I3" xr:uid="{91187505-A908-4B76-99E6-7768155B9541}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{903BACB1-82B9-41E0-BC21-C5206927D753}" name="Payer"/>
-    <tableColumn id="2" xr3:uid="{BDCDBCC5-93E3-4285-A96E-8B04E3FA416B}" name="SGD" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{BDCDBCC5-93E3-4285-A96E-8B04E3FA416B}" name="SGD" dataDxfId="0">
       <calculatedColumnFormula>SUMIF(Table2[Payer],Table3[[#This Row],[Payer]],Table2[SGD])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACF1B6B-7B12-415F-B435-657621026849}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A23" sqref="A23:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="I2">
         <f>SUMIF(Table2[Payer],Table3[[#This Row],[Payer]],Table2[SGD])</f>
-        <v>216.04167000000001</v>
+        <v>217.04167000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
       </c>
       <c r="I3">
         <f>SUMIF(Table2[Payer],Table3[[#This Row],[Payer]],Table2[SGD])</f>
-        <v>190.79166666666669</v>
+        <v>231.52666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,11 +706,11 @@
       </c>
       <c r="H6" t="str">
         <f>IF(I2&gt;I3,H2,H3)</f>
-        <v>Hoang</v>
+        <v>Thanh</v>
       </c>
       <c r="I6">
         <f>ABS(I2-I3)</f>
-        <v>25.250003333333325</v>
+        <v>14.48499666666666</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1075,6 +1075,162 @@
       <c r="F23" s="5">
         <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
         <v>8.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f>[1]!Table2[[#This Row],[Date]]</f>
+        <v>43239</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Item]]</f>
+        <v>borrow</v>
+      </c>
+      <c r="C24" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <f>[1]!Table2[[#This Row],[Div]]</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Payer]]</f>
+        <v>Hoang</v>
+      </c>
+      <c r="F24" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f>[1]!Table2[[#This Row],[Date]]</f>
+        <v>43239</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Item]]</f>
+        <v>linh debt</v>
+      </c>
+      <c r="C25" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]</f>
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <f>[1]!Table2[[#This Row],[Div]]</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Payer]]</f>
+        <v>Thanh</v>
+      </c>
+      <c r="F25" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f>[1]!Table2[[#This Row],[Date]]</f>
+        <v>43239</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Item]]</f>
+        <v>pub</v>
+      </c>
+      <c r="C26" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]</f>
+        <v>70</v>
+      </c>
+      <c r="D26" s="1">
+        <f>[1]!Table2[[#This Row],[Div]]</f>
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Payer]]</f>
+        <v>Thanh</v>
+      </c>
+      <c r="F26" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f>[1]!Table2[[#This Row],[Date]]</f>
+        <v>43239</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Item]]</f>
+        <v>grab</v>
+      </c>
+      <c r="C27" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]</f>
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <f>[1]!Table2[[#This Row],[Div]]</f>
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Payer]]</f>
+        <v>Thanh</v>
+      </c>
+      <c r="F27" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f>[1]!Table2[[#This Row],[Date]]</f>
+        <v>43239</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Item]]</f>
+        <v>lunch</v>
+      </c>
+      <c r="C28" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]</f>
+        <v>43.8</v>
+      </c>
+      <c r="D28" s="1">
+        <f>[1]!Table2[[#This Row],[Div]]</f>
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Payer]]</f>
+        <v>Thanh</v>
+      </c>
+      <c r="F28" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f>[1]!Table2[[#This Row],[Date]]</f>
+        <v>43239</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Item]]</f>
+        <v>fairprice</v>
+      </c>
+      <c r="C29" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]</f>
+        <v>5.75</v>
+      </c>
+      <c r="D29" s="1">
+        <f>[1]!Table2[[#This Row],[Div]]</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>[1]!Table2[[#This Row],[Payer]]</f>
+        <v>Thanh</v>
+      </c>
+      <c r="F29" s="5">
+        <f>[1]!Table2[[#This Row],[Raw]]/[1]!Table2[[#This Row],[Div]]</f>
+        <v>2.875</v>
       </c>
     </row>
   </sheetData>
